--- a/data/outputs/management_elsevier/86.xlsx
+++ b/data/outputs/management_elsevier/86.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS108"/>
+  <dimension ref="A1:BU108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -917,6 +927,12 @@
           <t>2-s2.0-84949625944</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>647</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1128,6 +1144,12 @@
           <t>2-s2.0-84949625921</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2261</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1333,6 +1355,12 @@
           <t>2-s2.0-84949625042</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1859</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1576,12 @@
           <t>2-s2.0-84949626497</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1804</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1759,6 +1793,12 @@
           <t>2-s2.0-84949626636</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1815</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1960,6 +2000,12 @@
           <t>2-s2.0-84949627440</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>2901</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2165,6 +2211,12 @@
           <t>2-s2.0-84949604670</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>377</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2370,6 +2422,12 @@
           <t>2-s2.0-84949569156</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>668</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2585,6 +2643,12 @@
           <t>2-s2.0-84949561370</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>3632</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2800,6 +2864,12 @@
           <t>2-s2.0-84949551523</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>36155</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3015,6 +3085,12 @@
           <t>2-s2.0-84949623128</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2262</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3224,6 +3300,12 @@
           <t>2-s2.0-84939435759</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1131</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3437,6 +3519,12 @@
           <t>2-s2.0-84939152721</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1339</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3654,6 +3742,12 @@
           <t>2-s2.0-84939424354</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>1130</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3859,6 +3953,12 @@
           <t>2-s2.0-84939420446</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>1522</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4068,6 +4168,12 @@
           <t>2-s2.0-84940843273</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>2030</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4271,6 +4377,12 @@
           <t>2-s2.0-84940826210</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>676</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4494,6 +4606,12 @@
           <t>2-s2.0-84940866761</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1020</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4721,6 +4839,12 @@
           <t>2-s2.0-84942048951</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1711</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4944,6 +5068,12 @@
           <t>2-s2.0-84941644679</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>993</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5151,6 +5281,12 @@
           <t>2-s2.0-84945900719</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1345</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5370,6 +5506,12 @@
           <t>2-s2.0-84945928133</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>998</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5570,6 +5712,12 @@
         <is>
           <t>2-s2.0-84946401690</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>2332</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -5752,6 +5900,12 @@
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5941,6 +6095,12 @@
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6156,6 +6316,12 @@
           <t>2-s2.0-84939487289</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1459</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6377,6 +6543,12 @@
           <t>2-s2.0-84940862094</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1316</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6600,6 +6772,12 @@
           <t>2-s2.0-84940882727</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>1554</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6807,6 +6985,12 @@
           <t>2-s2.0-84943808211</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2034</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7010,6 +7194,12 @@
           <t>2-s2.0-84953635841</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>651</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7228,6 +7418,12 @@
         <is>
           <t>2-s2.0-84953636505</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>1370</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -7436,6 +7632,12 @@
           <t>2-s2.0-84953637757</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2725</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7651,6 +7853,12 @@
           <t>2-s2.0-84953635705</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1255</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7866,6 +8074,12 @@
           <t>2-s2.0-84953635903</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>4296</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8085,6 +8299,12 @@
           <t>2-s2.0-84953379220</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>862</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8300,6 +8520,12 @@
           <t>2-s2.0-84953637122</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>717</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8518,6 +8744,12 @@
         <is>
           <t>2-s2.0-84953639859</t>
         </is>
+      </c>
+      <c r="BT38" t="n">
+        <v>1208</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -8730,6 +8962,12 @@
           <t>2-s2.0-84953638658</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1234</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8944,6 +9182,12 @@
         <is>
           <t>2-s2.0-84953638095</t>
         </is>
+      </c>
+      <c r="BT40" t="n">
+        <v>772</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -9156,6 +9400,12 @@
           <t>2-s2.0-84953638890</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1055</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9379,6 +9629,12 @@
           <t>2-s2.0-84936774924</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>3555</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9584,6 +9840,12 @@
           <t>2-s2.0-84936864515</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>1875</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9804,6 +10066,12 @@
         <is>
           <t>2-s2.0-84936859539</t>
         </is>
+      </c>
+      <c r="BT44" t="n">
+        <v>386</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -10000,6 +10268,12 @@
           <t>2-s2.0-84940447343</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>519</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10211,6 +10485,12 @@
           <t>2-s2.0-84940384930</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1380</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10418,6 +10698,12 @@
           <t>2-s2.0-84940367583</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>2204</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10637,6 +10923,12 @@
           <t>2-s2.0-84940461370</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1664</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10852,6 +11144,12 @@
           <t>2-s2.0-84940460694</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1893</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11053,6 +11351,12 @@
           <t>2-s2.0-84940462531</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>1253</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11274,6 +11578,12 @@
           <t>2-s2.0-84936996979</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>1141</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11485,6 +11795,12 @@
           <t>2-s2.0-84938153529</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>3865</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11700,6 +12016,12 @@
           <t>2-s2.0-84938688580</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>30170</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11907,6 +12229,12 @@
           <t>2-s2.0-84940792897</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>1752</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12114,6 +12442,12 @@
           <t>2-s2.0-84940462099</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>1075</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12333,6 +12667,12 @@
           <t>2-s2.0-84930180239</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1987</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12552,6 +12892,12 @@
           <t>2-s2.0-84930180388</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1923</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12787,6 +13133,12 @@
           <t>2-s2.0-84930179672</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1429</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12996,6 +13348,12 @@
           <t>2-s2.0-84930179728</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1137</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13201,6 +13559,12 @@
           <t>2-s2.0-84928676526</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>2798</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13424,6 +13788,12 @@
           <t>2-s2.0-84928886407</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>1613</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13641,6 +14011,12 @@
           <t>2-s2.0-84930181784</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>2832</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13862,6 +14238,12 @@
           <t>2-s2.0-84930181356</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>2524</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14067,6 +14449,12 @@
           <t>2-s2.0-84925655239</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1204</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14286,6 +14674,12 @@
           <t>2-s2.0-84927559124</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1239</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14507,6 +14901,12 @@
           <t>2-s2.0-84928248331</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>11267</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14718,6 +15118,12 @@
           <t>2-s2.0-84937758746</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>608</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14929,6 +15335,12 @@
           <t>2-s2.0-84928615281</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>8234</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15138,6 +15550,12 @@
           <t>2-s2.0-84937761553</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>526</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15354,6 +15772,12 @@
         <is>
           <t>2-s2.0-84928607472</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>4630</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -15564,6 +15988,12 @@
           <t>2-s2.0-84939885495</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1516</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15771,6 +16201,12 @@
           <t>2-s2.0-84940008095</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>1664</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15989,6 +16425,12 @@
         <is>
           <t>2-s2.0-84939958669</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>2998</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -16217,6 +16659,12 @@
           <t>2-s2.0-84923633913</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>3267</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16426,6 +16874,12 @@
           <t>2-s2.0-84923927566</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>2242</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16627,6 +17081,12 @@
           <t>2-s2.0-84923899952</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1038</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16834,6 +17294,12 @@
           <t>2-s2.0-84924417780</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1526</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17049,6 +17515,12 @@
           <t>2-s2.0-84924407354</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1969</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17264,6 +17736,12 @@
           <t>2-s2.0-84924727066</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>36598</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17483,6 +17961,12 @@
           <t>2-s2.0-84911944211</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>5283</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17696,6 +18180,12 @@
           <t>2-s2.0-84920175233</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1474</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17901,6 +18391,12 @@
           <t>2-s2.0-84921480557</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1429</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18114,6 +18610,12 @@
           <t>2-s2.0-84921514871</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>2693</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18325,6 +18827,12 @@
           <t>2-s2.0-84921450928</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>4008</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18542,6 +19050,12 @@
           <t>2-s2.0-84921529793</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>1429</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18743,6 +19257,12 @@
           <t>2-s2.0-84921816864</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1362</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18954,6 +19474,12 @@
           <t>2-s2.0-84922382186</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1332</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19169,6 +19695,12 @@
           <t>2-s2.0-84922466393</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>2613</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19394,6 +19926,12 @@
           <t>2-s2.0-84919933419</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>1468</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19613,6 +20151,12 @@
           <t>2-s2.0-84921459540</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>7672</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19824,6 +20368,12 @@
           <t>2-s2.0-85027924666</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>3622</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20029,6 +20579,12 @@
           <t>2-s2.0-85027948971</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>2377</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20250,6 +20806,12 @@
           <t>2-s2.0-84923025216</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>3237</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20463,6 +21025,12 @@
           <t>2-s2.0-85027924512</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>2264</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20678,6 +21246,12 @@
           <t>2-s2.0-85027933424</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>2780</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20899,6 +21473,12 @@
           <t>2-s2.0-85027953499</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>5858</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21115,6 +21695,12 @@
         <is>
           <t>2-s2.0-85027919796</t>
         </is>
+      </c>
+      <c r="BT97" t="n">
+        <v>1800</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -21327,6 +21913,12 @@
           <t>2-s2.0-85027951294</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1517</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21558,6 +22150,12 @@
           <t>2-s2.0-84922960229</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>1159</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21773,6 +22371,12 @@
           <t>2-s2.0-84923010221</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>3461</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21990,6 +22594,12 @@
           <t>2-s2.0-84922999508</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1236</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22215,6 +22825,12 @@
           <t>2-s2.0-85027958083</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>1358</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22431,6 +23047,12 @@
         <is>
           <t>2-s2.0-84923045815</t>
         </is>
+      </c>
+      <c r="BT103" t="n">
+        <v>1626</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
@@ -22641,6 +23263,12 @@
           <t>2-s2.0-84923006736</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>2047</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22868,6 +23496,12 @@
           <t>2-s2.0-85028143698</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>15956</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23097,6 +23731,12 @@
           <t>2-s2.0-84923025635</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>2663</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23316,6 +23956,12 @@
           <t>2-s2.0-84923006445</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>4067</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23535,6 +24181,12 @@
           <t>2-s2.0-84923045337</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1609</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
